--- a/Diplomarbeitsdukumentation/Zeitaufwand.xlsx
+++ b/Diplomarbeitsdukumentation/Zeitaufwand.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="14310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="14310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Begleitprotokoll" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="152">
   <si>
     <t>Name:</t>
   </si>
@@ -522,6 +522,9 @@
   </si>
   <si>
     <t>Versionsverwaltung über GitHub erstellt</t>
+  </si>
+  <si>
+    <t>Finalisieren der Dokumentation der Diplomarbeit V01</t>
   </si>
 </sst>
 </file>
@@ -1625,7 +1628,7 @@
                   <c:v>8.0166666666666657</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.5</c:v>
+                  <c:v>23.266666666666662</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0</c:v>
@@ -2274,8 +2277,8 @@
   </sheetPr>
   <dimension ref="A1:HZ298"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H207" sqref="H207"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H212" sqref="H212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2312,16 +2315,16 @@
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
       <c r="E2" s="22">
-        <f>SUM(E5:E203)</f>
+        <f>SUM(E5:E298)</f>
         <v>134.76999999999998</v>
       </c>
       <c r="F2" s="22">
-        <f>SUM(F5:F203)</f>
-        <v>337.20333333333321</v>
+        <f>SUM(F5:F298)</f>
+        <v>354.96999999999986</v>
       </c>
       <c r="G2" s="23">
-        <f>SUM(G5:G203)</f>
-        <v>471.96666666666641</v>
+        <f>SUM(G5:G298)</f>
+        <v>489.73333333333306</v>
       </c>
       <c r="H2" s="24"/>
     </row>
@@ -8402,151 +8405,207 @@
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" s="36"/>
-      <c r="B206" s="29" t="e">
+      <c r="A206" s="36">
+        <v>43097</v>
+      </c>
+      <c r="B206" s="29">
         <f t="shared" si="39"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C206" s="30"/>
-      <c r="D206" s="31"/>
+        <v>52</v>
+      </c>
+      <c r="C206" s="30">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D206" s="31">
+        <v>0.54861111111111105</v>
+      </c>
       <c r="E206" s="32">
         <v>0</v>
       </c>
       <c r="F206" s="32">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1.6666666666666665</v>
       </c>
       <c r="G206" s="33">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="H206" s="35"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="H206" s="40" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="36"/>
-      <c r="B207" s="29" t="e">
+      <c r="A207" s="36">
+        <v>43097</v>
+      </c>
+      <c r="B207" s="29">
         <f t="shared" si="39"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C207" s="30"/>
-      <c r="D207" s="31"/>
+        <v>52</v>
+      </c>
+      <c r="C207" s="30">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="D207" s="31">
+        <v>1</v>
+      </c>
       <c r="E207" s="32">
         <v>0</v>
       </c>
       <c r="F207" s="32">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="G207" s="33">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="H207" s="35"/>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="H207" s="40" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" s="36"/>
-      <c r="B208" s="29" t="e">
+      <c r="A208" s="36">
+        <v>43098</v>
+      </c>
+      <c r="B208" s="29">
         <f t="shared" si="39"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C208" s="30"/>
-      <c r="D208" s="31"/>
+        <v>52</v>
+      </c>
+      <c r="C208" s="30">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="D208" s="31">
+        <v>0.50763888888888886</v>
+      </c>
       <c r="E208" s="32">
         <v>0</v>
       </c>
       <c r="F208" s="32">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="G208" s="33">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="H208" s="35"/>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="H208" s="40" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" s="36"/>
-      <c r="B209" s="29" t="e">
+      <c r="A209" s="36">
+        <v>43098</v>
+      </c>
+      <c r="B209" s="29">
         <f t="shared" si="39"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C209" s="30"/>
-      <c r="D209" s="31"/>
+        <v>52</v>
+      </c>
+      <c r="C209" s="30">
+        <v>0.5625</v>
+      </c>
+      <c r="D209" s="31">
+        <v>0.61805555555555558</v>
+      </c>
       <c r="E209" s="32">
         <v>0</v>
       </c>
       <c r="F209" s="32">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="G209" s="33">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="H209" s="35"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="H209" s="40" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="36"/>
-      <c r="B210" s="29" t="e">
+      <c r="A210" s="36">
+        <v>43099</v>
+      </c>
+      <c r="B210" s="29">
         <f t="shared" si="39"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C210" s="30"/>
-      <c r="D210" s="31"/>
+        <v>52</v>
+      </c>
+      <c r="C210" s="30">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D210" s="31">
+        <v>0.86458333333333337</v>
+      </c>
       <c r="E210" s="32">
         <v>0</v>
       </c>
       <c r="F210" s="32">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="G210" s="33">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="H210" s="35"/>
+        <v>2.25</v>
+      </c>
+      <c r="H210" s="40" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" s="36"/>
-      <c r="B211" s="29" t="e">
+      <c r="A211" s="36">
+        <v>43099</v>
+      </c>
+      <c r="B211" s="29">
         <f t="shared" si="39"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C211" s="30"/>
-      <c r="D211" s="31"/>
+        <v>52</v>
+      </c>
+      <c r="C211" s="30">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="D211" s="31">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="E211" s="32">
         <v>0</v>
       </c>
       <c r="F211" s="32">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G211" s="33">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="H211" s="35"/>
+        <v>0.75</v>
+      </c>
+      <c r="H211" s="40" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A212" s="36"/>
-      <c r="B212" s="29" t="e">
+      <c r="A212" s="36">
+        <v>43099</v>
+      </c>
+      <c r="B212" s="29">
         <f t="shared" si="39"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C212" s="30"/>
-      <c r="D212" s="31"/>
+        <v>52</v>
+      </c>
+      <c r="C212" s="30">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D212" s="31">
+        <v>1</v>
+      </c>
       <c r="E212" s="32">
         <v>0</v>
       </c>
       <c r="F212" s="32">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G212" s="33">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="H212" s="35"/>
+        <v>1</v>
+      </c>
+      <c r="H212" s="40" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="36"/>
@@ -10380,8 +10439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C5:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y31" sqref="Y31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10399,7 +10458,7 @@
       <c r="D8" s="52"/>
       <c r="E8" s="1">
         <f>SUM(D11:D62)</f>
-        <v>471.96666666666675</v>
+        <v>489.73333333333341</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
@@ -10415,7 +10474,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C11,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C11,Begleitprotokoll!$G$5:$G$298)</f>
         <v>5.3333333333333339</v>
       </c>
     </row>
@@ -10424,7 +10483,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C12,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C12,Begleitprotokoll!$G$5:$G$298)</f>
         <v>3.25</v>
       </c>
     </row>
@@ -10433,7 +10492,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C13,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C13,Begleitprotokoll!$G$5:$G$298)</f>
         <v>15.333333333333334</v>
       </c>
     </row>
@@ -10442,7 +10501,7 @@
         <v>19</v>
       </c>
       <c r="D14" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C14,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C14,Begleitprotokoll!$G$5:$G$298)</f>
         <v>7.2166666666666668</v>
       </c>
     </row>
@@ -10451,7 +10510,7 @@
         <v>20</v>
       </c>
       <c r="D15" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C15,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C15,Begleitprotokoll!$G$5:$G$298)</f>
         <v>6.2499999999999991</v>
       </c>
     </row>
@@ -10460,7 +10519,7 @@
         <v>21</v>
       </c>
       <c r="D16" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C16,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C16,Begleitprotokoll!$G$5:$G$298)</f>
         <v>2.5833333333333335</v>
       </c>
     </row>
@@ -10469,7 +10528,7 @@
         <v>22</v>
       </c>
       <c r="D17" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C17,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C17,Begleitprotokoll!$G$5:$G$298)</f>
         <v>14</v>
       </c>
     </row>
@@ -10478,7 +10537,7 @@
         <v>23</v>
       </c>
       <c r="D18" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C18,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C18,Begleitprotokoll!$G$5:$G$298)</f>
         <v>0</v>
       </c>
     </row>
@@ -10487,7 +10546,7 @@
         <v>24</v>
       </c>
       <c r="D19" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C19,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C19,Begleitprotokoll!$G$5:$G$298)</f>
         <v>23</v>
       </c>
     </row>
@@ -10496,7 +10555,7 @@
         <v>25</v>
       </c>
       <c r="D20" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C20,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C20,Begleitprotokoll!$G$5:$G$298)</f>
         <v>20.216666666666669</v>
       </c>
     </row>
@@ -10505,7 +10564,7 @@
         <v>26</v>
       </c>
       <c r="D21" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C21,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C21,Begleitprotokoll!$G$5:$G$298)</f>
         <v>22.400000000000002</v>
       </c>
     </row>
@@ -10514,7 +10573,7 @@
         <v>27</v>
       </c>
       <c r="D22" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C22,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C22,Begleitprotokoll!$G$5:$G$298)</f>
         <v>28.716666666666669</v>
       </c>
     </row>
@@ -10523,7 +10582,7 @@
         <v>28</v>
       </c>
       <c r="D23" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C23,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C23,Begleitprotokoll!$G$5:$G$298)</f>
         <v>26.05</v>
       </c>
     </row>
@@ -10532,7 +10591,7 @@
         <v>29</v>
       </c>
       <c r="D24" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C24,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C24,Begleitprotokoll!$G$5:$G$298)</f>
         <v>0.5</v>
       </c>
     </row>
@@ -10541,7 +10600,7 @@
         <v>30</v>
       </c>
       <c r="D25" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C25,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C25,Begleitprotokoll!$G$5:$G$298)</f>
         <v>22.733333333333334</v>
       </c>
     </row>
@@ -10550,7 +10609,7 @@
         <v>31</v>
       </c>
       <c r="D26" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C26,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C26,Begleitprotokoll!$G$5:$G$298)</f>
         <v>15.366666666666667</v>
       </c>
     </row>
@@ -10559,7 +10618,7 @@
         <v>32</v>
       </c>
       <c r="D27" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C27,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C27,Begleitprotokoll!$G$5:$G$298)</f>
         <v>20.75</v>
       </c>
     </row>
@@ -10568,7 +10627,7 @@
         <v>33</v>
       </c>
       <c r="D28" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C28,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C28,Begleitprotokoll!$G$5:$G$298)</f>
         <v>6.166666666666667</v>
       </c>
     </row>
@@ -10577,7 +10636,7 @@
         <v>34</v>
       </c>
       <c r="D29" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C29,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C29,Begleitprotokoll!$G$5:$G$298)</f>
         <v>21.083333333333332</v>
       </c>
     </row>
@@ -10586,7 +10645,7 @@
         <v>35</v>
       </c>
       <c r="D30" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C30,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C30,Begleitprotokoll!$G$5:$G$298)</f>
         <v>5.9666666666666668</v>
       </c>
     </row>
@@ -10595,7 +10654,7 @@
         <v>36</v>
       </c>
       <c r="D31" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C31,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C31,Begleitprotokoll!$G$5:$G$298)</f>
         <v>18.666666666666668</v>
       </c>
     </row>
@@ -10604,7 +10663,7 @@
         <v>37</v>
       </c>
       <c r="D32" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C32,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C32,Begleitprotokoll!$G$5:$G$298)</f>
         <v>6.583333333333333</v>
       </c>
     </row>
@@ -10613,7 +10672,7 @@
         <v>38</v>
       </c>
       <c r="D33" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C33,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C33,Begleitprotokoll!$G$5:$G$298)</f>
         <v>9.7333333333333343</v>
       </c>
     </row>
@@ -10622,7 +10681,7 @@
         <v>39</v>
       </c>
       <c r="D34" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C34,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C34,Begleitprotokoll!$G$5:$G$298)</f>
         <v>27.616666666666664</v>
       </c>
     </row>
@@ -10631,7 +10690,7 @@
         <v>40</v>
       </c>
       <c r="D35" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C35,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C35,Begleitprotokoll!$G$5:$G$298)</f>
         <v>19.666666666666668</v>
       </c>
     </row>
@@ -10640,7 +10699,7 @@
         <v>41</v>
       </c>
       <c r="D36" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C36,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C36,Begleitprotokoll!$G$5:$G$298)</f>
         <v>15.166666666666668</v>
       </c>
     </row>
@@ -10649,7 +10708,7 @@
         <v>42</v>
       </c>
       <c r="D37" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C37,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C37,Begleitprotokoll!$G$5:$G$298)</f>
         <v>6.9166666666666661</v>
       </c>
     </row>
@@ -10658,7 +10717,7 @@
         <v>43</v>
       </c>
       <c r="D38" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C38,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C38,Begleitprotokoll!$G$5:$G$298)</f>
         <v>30.050000000000004</v>
       </c>
     </row>
@@ -10667,7 +10726,7 @@
         <v>44</v>
       </c>
       <c r="D39" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C39,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C39,Begleitprotokoll!$G$5:$G$298)</f>
         <v>0</v>
       </c>
     </row>
@@ -10676,7 +10735,7 @@
         <v>45</v>
       </c>
       <c r="D40" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C40,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C40,Begleitprotokoll!$G$5:$G$298)</f>
         <v>0</v>
       </c>
     </row>
@@ -10685,7 +10744,7 @@
         <v>46</v>
       </c>
       <c r="D41" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C41,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C41,Begleitprotokoll!$G$5:$G$298)</f>
         <v>20.916666666666664</v>
       </c>
     </row>
@@ -10694,7 +10753,7 @@
         <v>47</v>
       </c>
       <c r="D42" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C42,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C42,Begleitprotokoll!$G$5:$G$298)</f>
         <v>14.666666666666666</v>
       </c>
     </row>
@@ -10703,7 +10762,7 @@
         <v>48</v>
       </c>
       <c r="D43" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C43,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C43,Begleitprotokoll!$G$5:$G$298)</f>
         <v>11.333333333333332</v>
       </c>
     </row>
@@ -10712,7 +10771,7 @@
         <v>49</v>
       </c>
       <c r="D44" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C44,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C44,Begleitprotokoll!$G$5:$G$298)</f>
         <v>1.5</v>
       </c>
     </row>
@@ -10721,7 +10780,7 @@
         <v>50</v>
       </c>
       <c r="D45" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C45,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C45,Begleitprotokoll!$G$5:$G$298)</f>
         <v>8.7166666666666668</v>
       </c>
     </row>
@@ -10730,7 +10789,7 @@
         <v>51</v>
       </c>
       <c r="D46" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C46,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C46,Begleitprotokoll!$G$5:$G$298)</f>
         <v>8.0166666666666657</v>
       </c>
     </row>
@@ -10739,8 +10798,8 @@
         <v>52</v>
       </c>
       <c r="D47" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C47,Begleitprotokoll!$G$5:$G$298)</f>
-        <v>5.5</v>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C47,Begleitprotokoll!$G$5:$G$298)</f>
+        <v>23.266666666666662</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.25">
@@ -10748,7 +10807,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C48,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C48,Begleitprotokoll!$G$5:$G$298)</f>
         <v>0</v>
       </c>
     </row>
@@ -10757,7 +10816,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C49,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C49,Begleitprotokoll!$G$5:$G$298)</f>
         <v>0</v>
       </c>
       <c r="G49" s="3"/>
@@ -10767,7 +10826,7 @@
         <v>3</v>
       </c>
       <c r="D50" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C50,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C50,Begleitprotokoll!$G$5:$G$298)</f>
         <v>0</v>
       </c>
     </row>
@@ -10776,7 +10835,7 @@
         <v>4</v>
       </c>
       <c r="D51" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C51,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C51,Begleitprotokoll!$G$5:$G$298)</f>
         <v>0</v>
       </c>
     </row>
@@ -10785,7 +10844,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C52,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C52,Begleitprotokoll!$G$5:$G$298)</f>
         <v>0</v>
       </c>
     </row>
@@ -10794,7 +10853,7 @@
         <v>6</v>
       </c>
       <c r="D53" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C53,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C53,Begleitprotokoll!$G$5:$G$298)</f>
         <v>0</v>
       </c>
     </row>
@@ -10803,7 +10862,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C54,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C54,Begleitprotokoll!$G$5:$G$298)</f>
         <v>0</v>
       </c>
       <c r="G54" s="3"/>
@@ -10813,7 +10872,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C55,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C55,Begleitprotokoll!$G$5:$G$298)</f>
         <v>0</v>
       </c>
       <c r="G55" s="3"/>
@@ -10823,7 +10882,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C56,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C56,Begleitprotokoll!$G$5:$G$298)</f>
         <v>0</v>
       </c>
     </row>
@@ -10832,7 +10891,7 @@
         <v>10</v>
       </c>
       <c r="D57" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C57,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C57,Begleitprotokoll!$G$5:$G$298)</f>
         <v>0</v>
       </c>
     </row>
@@ -10841,7 +10900,7 @@
         <v>11</v>
       </c>
       <c r="D58" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C58,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C58,Begleitprotokoll!$G$5:$G$298)</f>
         <v>0</v>
       </c>
       <c r="H58" s="3"/>
@@ -10851,7 +10910,7 @@
         <v>12</v>
       </c>
       <c r="D59" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C59,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C59,Begleitprotokoll!$G$5:$G$298)</f>
         <v>0</v>
       </c>
       <c r="H59" s="3"/>
@@ -10861,7 +10920,7 @@
         <v>13</v>
       </c>
       <c r="D60" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C60,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C60,Begleitprotokoll!$G$5:$G$298)</f>
         <v>0</v>
       </c>
     </row>
@@ -10870,7 +10929,7 @@
         <v>14</v>
       </c>
       <c r="D61" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C61,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C61,Begleitprotokoll!$G$5:$G$298)</f>
         <v>0</v>
       </c>
     </row>
@@ -10879,7 +10938,7 @@
         <v>15</v>
       </c>
       <c r="D62" s="3">
-        <f>SUMIF(Begleitprotokoll!$B$5:$B$203,Wochenstunden!$C62,Begleitprotokoll!$G$5:$G$298)</f>
+        <f>SUMIF(Begleitprotokoll!$B$5:$B$298,Wochenstunden!$C62,Begleitprotokoll!$G$5:$G$298)</f>
         <v>0</v>
       </c>
     </row>
